--- a/work-history/Kloset_requirement.xlsx
+++ b/work-history/Kloset_requirement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,9 +280,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -324,43 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -371,6 +334,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,23 +362,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -424,7 +379,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,7 +447,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,14 +459,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -475,19 +475,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,115 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,37 +643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,24 +660,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -692,6 +674,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +702,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -722,17 +733,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,15 +763,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,130 +781,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,10 +1020,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>196215</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335915</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1041,7 +1041,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3695700" y="190500"/>
-          <a:ext cx="1996440" cy="2101850"/>
+          <a:ext cx="3936365" cy="4143375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1069,8 +1069,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1080,7 +1080,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="219075" y="161925"/>
-          <a:ext cx="5543550" cy="5276850"/>
+          <a:ext cx="5543550" cy="3686175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,18 +1108,6 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>- MainActivity.java</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
             <a:t>package com.theklosetkb.www;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -1144,6 +1132,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
+            <a:t>import com.getcapacitor.BridgeActivity;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
             <a:t>import com.byteowls.capacitor.sms.SmsManagerPlugin;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -1152,36 +1148,12 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>import com.getcapacitor.BridgeActivity;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>import com.getcapacitor.Plugin;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>import com.getcapacitor.community.nativemarket.NativeMarket;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>import java.util.ArrayList;</a:t>
-          </a:r>
+            <a:t>import com.getcapacitor.community.firebaseanalytics.FirebaseAnalytics;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
@@ -1228,55 +1200,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>    // Initializes the Bridge</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>    this.init(savedInstanceState, new ArrayList&lt;Class&lt;? extends Plugin&gt;&gt;() {{</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>      // Additional plugins you've installed go here</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>      // Ex: add(TotallyAwesomePlugin.class);</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>      add(SmsManagerPlugin.class);</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>      add(NativeMarket.class);</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>    }});</a:t>
+            <a:t>    registerPlugin(FirebaseAnalytics.class);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    registerPlugin(SmsManagerPlugin.class);</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1294,6 +1226,10 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>}</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
@@ -1390,6 +1326,323 @@
             <a:t>npx cap sync android</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangles 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="3952875"/>
+          <a:ext cx="3324860" cy="1486535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- color.xml</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;resources&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;color name="colorPrimary"&gt;#3F51B5&lt;/color&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;color name="colorPrimaryDark"&gt;#303F9F&lt;/color&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;color name="colorAccent"&gt;#FF4081&lt;/color&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;/resources&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>508635</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangles 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="231775" y="5556250"/>
+          <a:ext cx="3324860" cy="1486535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- color.xml</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;?xml version="1.0" encoding="utf-8"?&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;resources&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;color name="colorPrimary"&gt;#3F51B5&lt;/color&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;color name="colorPrimaryDark"&gt;#303F9F&lt;/color&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  &lt;color name="colorAccent"&gt;#FF4081&lt;/color&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;/resources&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1736,8 +1989,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1860,7 +2113,7 @@
   <dimension ref="L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -2000,8 +2253,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2194,7 +2447,7 @@
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
